--- a/Vyzovskoe/Информатика/Лабы/7/Информатика7часть2 .xlsx
+++ b/Vyzovskoe/Информатика/Лабы/7/Информатика7часть2 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosty\OneDrive\Documents\GitHub\Vyzovskoe\Vyzovskoe\Информатика\Лабы\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4FFAD-3EF4-41D2-B9A9-DDD0ED327C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7316706E-723B-49C0-A6E8-F5AC592799A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="-16155" windowWidth="23010" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -799,22 +799,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="11" t="s">
         <v>46</v>
@@ -885,11 +885,11 @@
       <c r="G2" s="20"/>
       <c r="I2" s="21"/>
       <c r="AD2" s="4">
-        <f t="shared" ref="AD2:AD33" si="0">LEN(E2)</f>
+        <f t="shared" ref="AD2:AD18" si="0">LEN(E2)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="11" t="s">
         <v>25</v>
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="11" t="s">
         <v>10</v>
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="11" t="s">
         <v>29</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="11" t="s">
         <v>15</v>
@@ -974,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="11" t="s">
         <v>24</v>
@@ -997,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="11" t="s">
         <v>19</v>
@@ -1019,7 +1019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
@@ -1041,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="11" t="s">
         <v>27</v>
@@ -1062,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="11" t="s">
         <v>22</v>
@@ -1086,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="11" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="11" t="s">
         <v>21</v>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="11" t="s">
         <v>26</v>
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="11" t="s">
         <v>30</v>
@@ -1175,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="11" t="s">
         <v>14</v>
@@ -1196,7 +1196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="11" t="s">
         <v>23</v>
@@ -1216,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="11" t="s">
         <v>5</v>
@@ -1237,7 +1237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="11" t="s">
         <v>11</v>
@@ -1257,11 +1257,11 @@
       <c r="K19" s="22"/>
       <c r="M19" s="22"/>
       <c r="AD19" s="4">
-        <f>LEN(E20)</f>
+        <f t="shared" ref="AD19:AD50" si="1">LEN(E20)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="11" t="s">
         <v>4</v>
@@ -1278,11 +1278,11 @@
       <c r="F20" s="4"/>
       <c r="L20" s="22"/>
       <c r="AD20" s="4">
-        <f>LEN(E21)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="11" t="s">
         <v>42</v>
@@ -1299,11 +1299,11 @@
       <c r="F21" s="4"/>
       <c r="K21" s="22"/>
       <c r="AD21" s="4">
-        <f>LEN(E22)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="11" t="s">
         <v>39</v>
@@ -1319,11 +1319,11 @@
       </c>
       <c r="F22" s="4"/>
       <c r="AD22" s="4">
-        <f>LEN(E23)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="11" t="s">
         <v>38</v>
@@ -1340,11 +1340,11 @@
       <c r="F23" s="4"/>
       <c r="M23" s="22"/>
       <c r="AD23" s="4">
-        <f>LEN(E24)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="11" t="s">
         <v>34</v>
@@ -1362,11 +1362,11 @@
       <c r="J24" s="22"/>
       <c r="L24" s="22"/>
       <c r="AD24" s="4">
-        <f>LEN(E25)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="11" t="s">
         <v>20</v>
@@ -1383,11 +1383,11 @@
       <c r="F25" s="4"/>
       <c r="K25" s="22"/>
       <c r="AD25" s="4">
-        <f>LEN(E26)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="11" t="s">
         <v>13</v>
@@ -1403,11 +1403,11 @@
       </c>
       <c r="F26" s="4"/>
       <c r="AD26" s="4">
-        <f>LEN(E27)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="11" t="s">
         <v>18</v>
@@ -1423,11 +1423,11 @@
       </c>
       <c r="F27" s="4"/>
       <c r="AD27" s="4">
-        <f>LEN(E28)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="11" t="s">
         <v>31</v>
@@ -1444,11 +1444,11 @@
       <c r="F28" s="4"/>
       <c r="M28" s="23"/>
       <c r="AD28" s="4">
-        <f>LEN(E29)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="11" t="s">
         <v>9</v>
@@ -1466,11 +1466,11 @@
       <c r="L29" s="22"/>
       <c r="M29" s="26"/>
       <c r="AD29" s="4">
-        <f>LEN(E30)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="11" t="s">
         <v>40</v>
@@ -1487,11 +1487,11 @@
       <c r="F30" s="4"/>
       <c r="K30" s="22"/>
       <c r="AD30" s="4">
-        <f>LEN(E31)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="11" t="s">
         <v>17</v>
@@ -1507,11 +1507,11 @@
       </c>
       <c r="F31" s="4"/>
       <c r="AD31" s="4">
-        <f>LEN(E32)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="11" t="s">
         <v>32</v>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="F32" s="4"/>
       <c r="AD32" s="4">
-        <f>LEN(E33)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="11" t="s">
         <v>35</v>
@@ -1547,11 +1547,11 @@
       </c>
       <c r="F33" s="4"/>
       <c r="AD33" s="4">
-        <f>LEN(E34)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="11">
         <v>1</v>
@@ -1567,11 +1567,11 @@
       </c>
       <c r="F34" s="4"/>
       <c r="AD34" s="4">
-        <f>LEN(E35)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="11" t="s">
         <v>33</v>
@@ -1587,11 +1587,11 @@
       </c>
       <c r="F35" s="4"/>
       <c r="AD35" s="4">
-        <f>LEN(E36)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="11">
         <v>4</v>
@@ -1608,11 +1608,11 @@
       <c r="F36" s="4"/>
       <c r="P36" s="22"/>
       <c r="AD36" s="4">
-        <f>LEN(E37)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="11" t="s">
         <v>8</v>
@@ -1629,11 +1629,11 @@
       <c r="F37" s="4"/>
       <c r="O37" s="22"/>
       <c r="AD37" s="4">
-        <f>LEN(E38)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="11" t="s">
         <v>41</v>
@@ -1650,11 +1650,11 @@
       <c r="F38" s="4"/>
       <c r="N38" s="22"/>
       <c r="AD38" s="4">
-        <f>LEN(E39)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="11">
         <v>0</v>
@@ -1676,11 +1676,11 @@
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="AD39" s="4">
-        <f>LEN(E40)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="11">
         <v>5</v>
@@ -1696,11 +1696,11 @@
       </c>
       <c r="F40" s="4"/>
       <c r="AD40" s="4">
-        <f>LEN(E41)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="11">
         <v>9</v>
@@ -1716,11 +1716,11 @@
       </c>
       <c r="F41" s="4"/>
       <c r="AD41" s="4">
-        <f>LEN(E42)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="11">
         <v>2</v>
@@ -1736,11 +1736,11 @@
       </c>
       <c r="F42" s="4"/>
       <c r="AD42" s="4">
-        <f>LEN(E43)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="11">
         <v>3</v>
@@ -1756,11 +1756,11 @@
       </c>
       <c r="F43" s="4"/>
       <c r="AD43" s="4">
-        <f>LEN(E44)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="11">
         <v>7</v>
@@ -1776,11 +1776,11 @@
       </c>
       <c r="F44" s="4"/>
       <c r="AD44" s="4">
-        <f>LEN(E45)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="11">
         <v>6</v>
@@ -1796,11 +1796,11 @@
       </c>
       <c r="F45" s="4"/>
       <c r="AD45" s="4">
-        <f>LEN(E46)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="11">
         <v>8</v>
@@ -1816,11 +1816,11 @@
       </c>
       <c r="F46" s="4"/>
       <c r="AD46" s="4">
-        <f>LEN(E47)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="11" t="s">
         <v>6</v>
@@ -1837,11 +1837,11 @@
       <c r="F47" s="4"/>
       <c r="Q47" s="22"/>
       <c r="AD47" s="4">
-        <f>LEN(E48)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="11" t="s">
         <v>7</v>
@@ -1859,11 +1859,11 @@
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
       <c r="AD48" s="4">
-        <f>LEN(E49)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="11" t="s">
         <v>16</v>
@@ -1879,11 +1879,11 @@
       </c>
       <c r="F49" s="4"/>
       <c r="AD49" s="4">
-        <f>LEN(E50)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="11" t="s">
         <v>36</v>
@@ -1900,11 +1900,11 @@
       <c r="F50" s="4"/>
       <c r="O50" s="22"/>
       <c r="AD50" s="4">
-        <f>LEN(E51)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="14" t="s">
         <v>37</v>
@@ -1924,7 +1924,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="2">
@@ -1934,7 +1934,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="13"/>
     </row>
-    <row r="53" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
         <v>44</v>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="C54" s="17" t="s">
         <v>43</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:30" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="15" t="s">
@@ -1969,7 +1969,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:30" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
       <c r="C56" s="15">
@@ -2003,7 +2003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="15" t="s">
@@ -2037,7 +2037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -2050,7 +2050,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -2059,7 +2059,7 @@
       <c r="F59" s="12"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2068,7 +2068,7 @@
       <c r="F60" s="12"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -2077,7 +2077,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -2086,7 +2086,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2094,7 +2094,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D95" s="4">
         <f>SUM(F95:F144)</f>
         <v>372</v>
@@ -2108,319 +2108,319 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F96" s="4">
-        <f t="shared" ref="F96:F151" si="1">LEN(E3)</f>
+        <f t="shared" ref="F96:F143" si="2">LEN(E3)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" s="4">
         <f>LEN(E30)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F130" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F131" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F132" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F133" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F135" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F136" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F137" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F138" s="4">
         <f>LEN(E45)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F139" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F142" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F143" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F144" s="4">
         <f>LEN(E51)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F151" s="4"/>
     </row>
   </sheetData>
